--- a/va_facility_data_2025-02-20/Klamath Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Klamath%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Klamath Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Klamath%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R5ceef8bbb055469bbeeca4cb654f1791"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rac449420905840faad523c7f1c22aff0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf08d149e958f47cf8256608e18edcd5e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf5d938e75f1454f9dc9ab6240bab9c4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3590a0c272904dc4bfc45a45c3c51c79"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4fb39a5f092d4ed99d4ba8efe0405612"/>
   </x:sheets>
 </x:workbook>
 </file>
